--- a/files/joye-project.xlsx
+++ b/files/joye-project.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="dealine" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,143 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+  <si>
+    <t>Thời gian bàn giao</t>
+  </si>
+  <si>
+    <t>7 ngày</t>
+  </si>
+  <si>
+    <t>Tổng chi phí</t>
+  </si>
+  <si>
+    <t>7 triệu</t>
+  </si>
+  <si>
+    <t>Số người tham gia dự án</t>
+  </si>
+  <si>
+    <t>2 người</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nội dung </t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>http://preview.themeforest.net/item/reloj-sports-streaming-landing-html-templates/full_screen_preview/24184671?_ga=2.2128756.519059487.1723275561-1270514008.1687671045&amp;_gac=1.217059812.1723083954.Cj0KCQjwtsy1BhD7ARIsAHOi4xbTBuw2BqsUjZ0AiXxt23NDCB3uOMMt9BBjPxddLX5WRh3nseE2M1YaAlCdEALw_wcB</t>
+  </si>
+  <si>
+    <t>HOME ONE</t>
+  </si>
+  <si>
+    <t>DỰ ÁN JOYE</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>NỘI DUNG</t>
+  </si>
+  <si>
+    <t>PHỤ TRÁCH</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>TRẠNG THÁI FE</t>
+  </si>
+  <si>
+    <t>TRẠNG THÁI BE</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Trang giới thiệu</t>
+  </si>
+  <si>
+    <t>Trang danh sách dịch vụ</t>
+  </si>
+  <si>
+    <t>Trang chi tiết dịch vụ</t>
+  </si>
+  <si>
+    <t>Trang danh sách blog</t>
+  </si>
+  <si>
+    <t>Trang chi tiết blog</t>
+  </si>
+  <si>
+    <t>Trang liên hệ</t>
+  </si>
+  <si>
+    <t>Trang câu hỏi thường gặp</t>
+  </si>
+  <si>
+    <t>NHÓM</t>
+  </si>
+  <si>
+    <t>TRANG KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>TRANG QUẢN TRỊ</t>
+  </si>
+  <si>
+    <t>Quản trị viên</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Câu hỏi thường gặp</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành</t>
+  </si>
+  <si>
+    <t>KHÁC</t>
+  </si>
+  <si>
+    <t>Dđưa lên server chạy production</t>
+  </si>
+  <si>
+    <t>Bảo trì dịch vụ</t>
+  </si>
+  <si>
+    <t>Link git</t>
+  </si>
+  <si>
+    <t>https://github.com/trunglt706/joye_website_introduce</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +163,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,17 +210,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -331,12 +643,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="3" max="3" width="52.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>$D$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"yet"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"yet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$D$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"yet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$D$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/joye-project.xlsx
+++ b/files/joye-project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Thời gian bàn giao</t>
   </si>
@@ -139,9 +139,6 @@
     <t>KHÁC</t>
   </si>
   <si>
-    <t>Dđưa lên server chạy production</t>
-  </si>
-  <si>
     <t>Bảo trì dịch vụ</t>
   </si>
   <si>
@@ -149,6 +146,12 @@
   </si>
   <si>
     <t>https://github.com/trunglt706/joye_website_introduce</t>
+  </si>
+  <si>
+    <t>Đưa lên server chạy production</t>
+  </si>
+  <si>
+    <t>Cài đặt</t>
   </si>
 </sst>
 </file>
@@ -230,17 +233,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -261,12 +258,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -324,46 +370,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -645,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -657,63 +663,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +727,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7"/>
+    <hyperlink ref="C7" display="http://preview.themeforest.net/item/reloj-sports-streaming-landing-html-templates/full_screen_preview/24184671?_ga=2.2128756.519059487.1723275561-1270514008.1687671045&amp;_gac=1.217059812.1723083954.Cj0KCQjwtsy1BhD7ARIsAHOi4xbTBuw2BqsUjZ0AiXxt23NDCB3uOMMt9BB"/>
     <hyperlink ref="C9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,348 +737,366 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="6.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
-    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1080,36 +1104,49 @@
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="D1:D15 D17:D1048576">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"yet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"yet"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="E1:E15 E17:E1048576">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"yet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"yet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$D$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"yet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>$D$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
